--- a/Final Deliverables/Final Code/Flask App/precautions - fruits.xlsx
+++ b/Final Deliverables/Final Code/Flask App/precautions - fruits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\flask_app_working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8544D1A-6328-403B-8B05-10125F8499D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F372DEC-BBF9-4E69-8257-ABCFA2F1EC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>caution</t>
   </si>
@@ -66,16 +66,13 @@
     <t>Since black rot is a bacterial disease, fungicides are ineffective. Copper products are most commonly used, but overreliance on copper can lead to resistance. There are also biopesticides labeled for black rot, which can be used in combination with copper.</t>
   </si>
   <si>
-    <t>It is healthy!!</t>
-  </si>
-  <si>
     <t>Fungicide applications reduced Northern Corn Leaf Blight damage and protected yield. Fungicide value was higher in reducing yield in susceptible corn hybrids. Fungicide were most effective if they were applied at disease onset. Disease onset varied in growth stages, and so the best stage to apply fungicides.</t>
   </si>
   <si>
     <t>Compounds available for use on peach and nectarine for bacterial spot include copper, oxytetracycline (Mycoshield and generic equivalents), and syllit+captan; however, repeated applications are typically necessary for even minimal disease control.</t>
   </si>
   <si>
-    <t>It is healthy!!!</t>
+    <t>healthy!!</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -442,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -453,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -464,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -475,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -486,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
